--- a/ReadFiles/dadostoemail.xlsx
+++ b/ReadFiles/dadostoemail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\ReadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80286815-25D9-4322-97B3-36E838BB4147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D66EB2-6A9A-4465-99FE-C6739073F55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2C2596-FEDC-4806-AA04-C3A6BED56956}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>unidade</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>bulpert@yahoo.com</t>
+  </si>
+  <si>
+    <t>empreendimento</t>
+  </si>
+  <si>
+    <t>jurupis</t>
   </si>
 </sst>
 </file>
@@ -199,10 +205,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -519,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59491F56-CD08-47F1-9229-800FA97E9013}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +535,7 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -549,8 +554,11 @@
       <c r="F1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -566,11 +574,14 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -586,11 +597,14 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -606,11 +620,14 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -626,11 +643,14 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -646,11 +666,14 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -666,12 +689,15 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -687,11 +713,14 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -707,11 +736,14 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -727,11 +759,14 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -747,12 +782,12 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L14" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
